--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -3943,12 +3943,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3302160001</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
+          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3967,71 +3967,71 @@
         <v>90</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>47.94</v>
+        <v>48.65</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>17.12</v>
+        <v>17.71</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>13.7</v>
+        <v>22.9</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>38</v>
+        <v>-10</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3302160001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
+          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -4050,59 +4050,59 @@
         <v>90</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>48.65</v>
+        <v>47.94</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>17.71</v>
+        <v>17.12</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>22.9</v>
+        <v>13.7</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6612,55 +6612,55 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3402030001</t>
+          <t>3301030007</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ABONO CLAVOS VERDES</t>
+          <t>KB OSMOCOTE ABONO UNIVERSAL 750 GR</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.94</v>
+        <v>24.98</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>3.73</v>
+        <v>2.13</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>4.6</v>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>13.7</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -6695,55 +6695,55 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3301030007</t>
+          <t>3402030001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO UNIVERSAL 750 GR</t>
+          <t>ABONO CLAVOS VERDES</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>92</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -12997,24 +12997,16 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13032,13 +13024,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -13050,10 +13042,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -13088,16 +13080,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13115,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J25" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K25" s="4" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -14413,24 +14413,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14458,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -14496,24 +14496,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14541,19 +14549,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14562,12 +14570,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14579,24 +14587,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14624,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -14645,7 +14653,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -14662,24 +14670,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14707,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -14728,7 +14736,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -14745,24 +14753,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14790,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -14811,7 +14819,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14828,32 +14836,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14919,24 +14919,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -14985,7 +14985,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -15002,32 +15002,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15055,19 +15047,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15076,12 +15068,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15093,12 +15085,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15138,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15159,7 +15151,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15176,24 +15168,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15221,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -15242,7 +15234,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -15259,24 +15251,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15304,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -15325,7 +15317,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15342,24 +15334,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15387,7 +15379,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15408,7 +15400,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15425,24 +15417,32 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15470,19 +15470,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -15491,12 +15491,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15508,24 +15508,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15553,19 +15553,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15574,12 +15574,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15591,12 +15591,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -15636,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15674,12 +15674,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15757,24 +15757,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -15840,12 +15840,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15885,19 +15885,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15906,12 +15906,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15923,24 +15923,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15968,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -16006,24 +16006,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16051,19 +16051,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -16072,12 +16072,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16089,24 +16089,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16134,19 +16134,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T22" s="8" t="inlineStr">
         <is>
@@ -16155,12 +16155,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16172,24 +16172,32 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16217,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -16238,7 +16246,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -16255,12 +16263,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -16300,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
@@ -16321,7 +16329,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -16338,24 +16346,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16383,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16404,7 +16412,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -16421,32 +16429,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO ABRILLANTADOR 600ML</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -16512,32 +16512,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN TRAMPA RATONES</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16565,19 +16557,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -16586,12 +16578,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16603,24 +16595,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16648,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -16669,7 +16661,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16686,24 +16678,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16731,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16752,7 +16744,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16769,24 +16761,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16814,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
@@ -16835,7 +16827,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -16852,24 +16844,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16918,7 +16910,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16935,24 +16927,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16980,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -17001,7 +16993,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -17018,12 +17010,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17063,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17084,7 +17076,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17101,24 +17093,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17146,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17167,7 +17159,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -17184,24 +17176,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17229,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -17250,7 +17242,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17267,24 +17259,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17312,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -17333,7 +17325,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -17350,24 +17342,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17395,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17416,7 +17408,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17433,24 +17425,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17478,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17499,7 +17491,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17516,24 +17508,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17561,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -17582,7 +17574,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -17599,12 +17591,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17644,19 +17636,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17665,12 +17657,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17682,24 +17674,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17727,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17748,7 +17740,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17765,12 +17757,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -17810,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -17831,7 +17823,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -17931,24 +17923,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17976,19 +17968,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44" s="8" t="inlineStr">
         <is>
@@ -17997,12 +17989,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -18014,24 +18006,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18059,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -18080,7 +18072,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -18097,24 +18089,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18142,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18163,7 +18155,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18180,24 +18172,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18225,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18246,7 +18238,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18263,24 +18255,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18329,7 +18321,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18346,24 +18338,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18391,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -18412,7 +18404,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -18429,32 +18421,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO BIO CITRICOS 750GR</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18482,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18503,7 +18487,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18520,24 +18504,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18586,7 +18570,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18603,24 +18587,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18648,19 +18632,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T52" s="8" t="inlineStr">
         <is>
@@ -18669,12 +18653,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -18686,12 +18670,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -18731,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18752,7 +18736,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18769,24 +18753,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18814,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18835,7 +18819,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18852,24 +18836,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18897,19 +18881,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T55" s="8" t="inlineStr">
         <is>
@@ -18918,12 +18902,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -18935,24 +18919,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18980,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -19001,7 +18985,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19018,32 +19002,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19071,16 +19047,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>24.44</v>
+        <v>2.22</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>0</v>
@@ -19097,7 +19073,7 @@
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -19109,24 +19085,32 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19154,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -19175,7 +19159,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -19192,24 +19176,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19237,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
@@ -19258,7 +19242,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19275,24 +19259,32 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19320,19 +19312,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T60" s="8" t="inlineStr">
         <is>
@@ -19341,12 +19333,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -19358,24 +19350,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -19403,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -19424,7 +19416,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -19441,24 +19433,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -19507,7 +19499,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19524,12 +19516,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -19569,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19590,7 +19582,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19607,24 +19599,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19652,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -19673,7 +19665,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -19690,24 +19682,24 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -19735,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19756,7 +19748,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19773,24 +19765,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -19839,7 +19831,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -19856,24 +19848,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -19901,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
@@ -19922,7 +19914,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -19939,16 +19931,24 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr"/>
-      <c r="D68" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
           <t>33</t>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -20005,7 +20005,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20022,24 +20022,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20067,19 +20067,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T69" s="8" t="inlineStr">
         <is>
@@ -20088,12 +20088,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -20105,24 +20105,24 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -20150,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20188,16 +20188,24 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr"/>
-      <c r="D71" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -20233,7 +20241,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20254,7 +20262,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20271,16 +20279,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr"/>
-      <c r="D72" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -20316,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -20337,7 +20353,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -20354,24 +20370,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -20399,19 +20415,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T73" s="8" t="inlineStr">
         <is>
@@ -20420,12 +20436,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -20437,12 +20453,12 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
@@ -20482,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20503,7 +20519,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20520,32 +20536,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr"/>
+      <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20573,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -20594,7 +20602,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20611,12 +20619,12 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>YNJECT CONECTOR PALMERA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
@@ -20656,19 +20664,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T76" s="8" t="inlineStr">
         <is>
@@ -20677,12 +20685,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -20694,24 +20702,24 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20739,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -20760,7 +20768,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -20777,24 +20785,24 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -20822,7 +20830,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -20843,7 +20851,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -20860,24 +20868,32 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr"/>
-      <c r="D79" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -20905,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -20926,7 +20942,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -20943,24 +20959,24 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -20988,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
@@ -21009,7 +21025,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -21026,24 +21042,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -21071,19 +21087,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T81" s="8" t="inlineStr">
         <is>
@@ -21092,12 +21108,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -21109,24 +21125,32 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr"/>
-      <c r="D82" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -21154,19 +21178,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T82" s="8" t="inlineStr">
         <is>
@@ -21175,12 +21199,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -21192,12 +21216,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
@@ -21237,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21258,7 +21282,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21275,24 +21299,24 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -21320,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21341,7 +21365,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21358,24 +21382,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -21403,7 +21427,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
@@ -21424,7 +21448,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -21441,24 +21465,24 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -21486,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -21507,7 +21531,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -21524,12 +21548,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
@@ -21569,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -21590,7 +21614,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -21607,12 +21631,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
@@ -21652,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21673,7 +21697,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21690,24 +21714,16 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr"/>
+      <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
           <t>33</t>
@@ -21743,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -21764,7 +21780,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -21781,24 +21797,24 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -21826,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
@@ -21847,7 +21863,7 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -21864,24 +21880,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21909,19 +21925,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T91" s="8" t="inlineStr">
         <is>
@@ -21930,12 +21946,12 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W91" s="4" t="inlineStr">
@@ -21947,24 +21963,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -21992,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -22013,7 +22029,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -22030,24 +22046,24 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -22075,19 +22091,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T93" s="8" t="inlineStr">
         <is>
@@ -22096,12 +22112,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -22113,24 +22129,24 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -22158,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -22179,7 +22195,7 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
@@ -22196,24 +22212,24 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -22241,19 +22257,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T95" s="8" t="inlineStr">
         <is>
@@ -22262,12 +22278,12 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
@@ -22279,12 +22295,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22324,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -22345,7 +22361,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
@@ -22362,24 +22378,24 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
@@ -22407,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
@@ -22428,7 +22444,7 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
@@ -22445,32 +22461,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr"/>
+      <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -22498,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>59</v>
@@ -22519,7 +22527,7 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
@@ -22536,12 +22544,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
@@ -22602,7 +22610,7 @@
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
@@ -22619,12 +22627,12 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
@@ -22664,19 +22672,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T100" s="8" t="inlineStr">
         <is>
@@ -22685,12 +22693,12 @@
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W100" s="4" t="inlineStr">
@@ -22702,24 +22710,24 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -22747,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22768,7 +22776,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22785,24 +22793,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22830,19 +22838,19 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T102" s="8" t="inlineStr">
         <is>
@@ -22851,12 +22859,12 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
@@ -22868,24 +22876,24 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -22913,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22934,7 +22942,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22951,24 +22959,16 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr"/>
+      <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23025,7 +23025,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23042,24 +23042,24 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23125,24 +23125,24 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -23170,19 +23170,19 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T106" s="8" t="inlineStr">
         <is>
@@ -23191,12 +23191,12 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
@@ -23208,24 +23208,24 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
@@ -23274,7 +23274,7 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
@@ -23291,24 +23291,24 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23374,24 +23374,24 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23457,24 +23457,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23540,24 +23540,24 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>59</v>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23623,24 +23623,24 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -23706,24 +23706,24 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">
